--- a/spliced/falling/2023-03-21_15-35-08/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-08/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.266642689704895</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="B2" t="n">
-        <v>1.489289522171021</v>
+        <v>0.1944078654050827</v>
       </c>
       <c r="C2" t="n">
-        <v>1.197143197059631</v>
+        <v>-0.0245873257517814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5832235813140869</v>
+        <v>0.3005456924438476</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5451972484588623</v>
+        <v>0.8894197940826416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.808174729347229</v>
+        <v>0.086895577609539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5074763298034668</v>
+        <v>0.266642689704895</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9810495972633362</v>
+        <v>1.489289522171021</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5829181671142578</v>
+        <v>1.197143197059631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9239336848258972</v>
+        <v>-0.5832235813140869</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2371684312820434</v>
+        <v>0.5451972484588623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1962404549121856</v>
+        <v>0.808174729347229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8011497855186462</v>
+        <v>-0.5074763298034668</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.048092007637024</v>
+        <v>-0.9810495972633362</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0548251569271087</v>
+        <v>0.5829181671142578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3634648323059082</v>
+        <v>-0.9239336848258972</v>
       </c>
       <c r="B7" t="n">
-        <v>1.29381263256073</v>
+        <v>-0.2371684312820434</v>
       </c>
       <c r="C7" t="n">
-        <v>1.935221076011657</v>
+        <v>0.1962404549121856</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.552626132965088</v>
+        <v>-0.8011497855186462</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.393509149551392</v>
+        <v>-1.048092007637024</v>
       </c>
       <c r="C8" t="n">
-        <v>1.527773976325989</v>
+        <v>-0.0548251569271087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7554876208305359</v>
+        <v>0.3634648323059082</v>
       </c>
       <c r="B9" t="n">
-        <v>1.477530360221863</v>
+        <v>1.29381263256073</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5998696684837341</v>
+        <v>1.935221076011657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3274237811565399</v>
+        <v>-4.552626132965088</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0329867228865623</v>
+        <v>-3.393509149551392</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4276056587696075</v>
+        <v>1.527773976325989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0789543315768241</v>
+        <v>0.7554876208305359</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0847575515508651</v>
+        <v>1.477530360221863</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1519527286291122</v>
+        <v>-0.5998696684837341</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.0221438650041818</v>
+        <v>0.3274237811565399</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1513418704271316</v>
+        <v>-0.0329867228865623</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.171500414609909</v>
+        <v>-0.4276056587696075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0762054398655891</v>
+        <v>0.0789543315768241</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0978911519050598</v>
+        <v>-0.0847575515508651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.366213709115982</v>
+        <v>-0.1519527286291122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2686280012130737</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="B14" t="n">
-        <v>1.315498352050781</v>
+        <v>0.1513418704271316</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0265726372599601</v>
+        <v>-0.171500414609909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1499674171209335</v>
+        <v>0.0762054398655891</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5490151643753052</v>
+        <v>-0.0978911519050598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4234823286533355</v>
+        <v>0.366213709115982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.09239336848258969</v>
+        <v>-0.2686280012130737</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.09071348607540131</v>
+        <v>1.315498352050781</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0775798857212066</v>
+        <v>-0.0265726372599601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0155770638957619</v>
+        <v>-0.1499674171209335</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1032362282276153</v>
+        <v>-0.5490151643753052</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09071348607540131</v>
+        <v>0.4234823286533355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4306600093841553</v>
+        <v>-0.09239336848258969</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7470881938934326</v>
+        <v>-0.09071348607540131</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1643227487802505</v>
+        <v>0.0775798857212066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.219439744949341</v>
+        <v>0.0155770638957619</v>
       </c>
       <c r="B19" t="n">
-        <v>1.55587375164032</v>
+        <v>-0.1032362282276153</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009468411095440299</v>
+        <v>0.09071348607540131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3419318199157715</v>
+        <v>0.4306600093841553</v>
       </c>
       <c r="B20" t="n">
-        <v>2.081828832626343</v>
+        <v>0.7470881938934326</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5186246037483215</v>
+        <v>-0.1643227487802505</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0778853222727775</v>
+        <v>1.219439744949341</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0609338097274303</v>
+        <v>1.55587375164032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2976440787315368</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.3110831379890442</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.2634356319904327</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3216205537319183</v>
+        <v>0.009468411095440299</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-08/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-08/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0704022198915481</v>
+        <v>0.0500909499824047</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1944078654050827</v>
+        <v>0.0342084541916847</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0245873257517814</v>
+        <v>0.0232128798961639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3005456924438476</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8894197940826416</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.086895577609539</v>
+        <v>0.0390953756868839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.266642689704895</v>
+        <v>-0.0138971842825412</v>
       </c>
       <c r="B4" t="n">
-        <v>1.489289522171021</v>
+        <v>0.0290160998702049</v>
       </c>
       <c r="C4" t="n">
-        <v>1.197143197059631</v>
+        <v>0.1440114825963974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5832235813140869</v>
+        <v>0.0100792767480015</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5451972484588623</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.808174729347229</v>
+        <v>0.0288633834570646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.5074763298034668</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9810495972633362</v>
+        <v>-0.020616702735424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5829181671142578</v>
+        <v>-0.0172569435089826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9239336848258972</v>
+        <v>-0.0167987942695617</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2371684312820434</v>
+        <v>-0.0216857157647609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1962404549121856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8011497855186462</v>
+        <v>-0.0178678091615438</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.048092007637024</v>
+        <v>0.0054977871477603</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0548251569271087</v>
+        <v>0.0299323964864015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3634648323059082</v>
+        <v>-0.0229074470698833</v>
       </c>
       <c r="B9" t="n">
-        <v>1.29381263256073</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="C9" t="n">
-        <v>1.935221076011657</v>
+        <v>0.0030543261673301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.552626132965088</v>
+        <v>-0.0394008085131645</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.393509149551392</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="C10" t="n">
-        <v>1.527773976325989</v>
+        <v>0.011148290708661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7554876208305359</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="B11" t="n">
-        <v>1.477530360221863</v>
+        <v>0.1944078654050827</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5998696684837341</v>
+        <v>-0.0245873257517814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3274237811565399</v>
+        <v>0.3005456924438476</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0329867228865623</v>
+        <v>0.8894197940826416</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4276056587696075</v>
+        <v>0.086895577609539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0789543315768241</v>
+        <v>0.266642689704895</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0847575515508651</v>
+        <v>1.489289522171021</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1519527286291122</v>
+        <v>1.197143197059631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0221438650041818</v>
+        <v>-0.5832235813140869</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1513418704271316</v>
+        <v>0.5451972484588623</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.171500414609909</v>
+        <v>0.808174729347229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0762054398655891</v>
+        <v>-0.5074763298034668</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0978911519050598</v>
+        <v>-0.9810495972633362</v>
       </c>
       <c r="C15" t="n">
-        <v>0.366213709115982</v>
+        <v>0.5829181671142578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2686280012130737</v>
+        <v>-0.9239336848258972</v>
       </c>
       <c r="B16" t="n">
-        <v>1.315498352050781</v>
+        <v>-0.2371684312820434</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0265726372599601</v>
+        <v>0.1962404549121856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1499674171209335</v>
+        <v>-0.8011497855186462</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.5490151643753052</v>
+        <v>-1.048092007637024</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4234823286533355</v>
+        <v>-0.0548251569271087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.09239336848258969</v>
+        <v>0.3634648323059082</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.09071348607540131</v>
+        <v>1.29381263256073</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0775798857212066</v>
+        <v>1.935221076011657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0155770638957619</v>
+        <v>-4.552626132965088</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1032362282276153</v>
+        <v>-3.393509149551392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09071348607540131</v>
+        <v>1.527773976325989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4306600093841553</v>
+        <v>0.7554876208305359</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7470881938934326</v>
+        <v>1.477530360221863</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1643227487802505</v>
+        <v>-0.5998696684837341</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.3274237811565399</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.0329867228865623</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4276056587696075</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0789543315768241</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.0847575515508651</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1519527286291122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0221438650041818</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1513418704271316</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.171500414609909</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0762054398655891</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0978911519050598</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.366213709115982</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2686280012130737</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.315498352050781</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0265726372599601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1499674171209335</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.5490151643753052</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4234823286533355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.09239336848258969</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.09071348607540131</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0775798857212066</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0155770638957619</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1032362282276153</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.09071348607540131</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4306600093841553</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7470881938934326</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1643227487802505</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>1.219439744949341</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>1.55587375164032</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>0.009468411095440299</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.3419318199157715</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.081828832626343</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.5186246037483215</v>
       </c>
     </row>
   </sheetData>
